--- a/Output/AllModels_sensitivityNoPushing_12000.xlsx
+++ b/Output/AllModels_sensitivityNoPushing_12000.xlsx
@@ -1,634 +1,641 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kueng\DataAnalysis\02TimeAndTiesControl_updatedBRMS\Output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F652DD-3D43-4009-AB94-6B6280D88181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Subjective MVPA Hurdle Lognormal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Device-Based MVPA Log (Gaussian)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mood Gaussian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reactance Dichotome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp(Est.)_hu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95% CI_hu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp(Est.)_nonzero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95% CI_nonzero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp(Est.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95% CI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Est.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intercept</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.19,  0.34]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.39***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[33.54, 43.98]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110.80***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[99.60, 123.30]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 3.45, 3.87]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.31***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.16,   0.58]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Within-Person Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily persuasion experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.35,  1.79]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.97,  1.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.00,   1.06]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.04, 0.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.71,   1.02]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily persuasion utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.22,  1.55]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.98,  1.07]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.99,   1.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.01, 0.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.87,   1.47]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily pressure experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.73,  1.29]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.90*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.82,  1.00]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.89,   1.01]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.14, 0.07]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1.19,   4.12]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily pressure utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.14,  2.41]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.85,  1.02]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.93,   1.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.11, 0.10]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.59,   3.77]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily pushing experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily pushing utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.64,  1.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.85,  1.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.91,   1.04]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.14, 0.36]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.89,   3.87]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Own Actionplan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 7.39, 10.87]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.22,  1.46]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.02,   1.12]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.03, 0.18]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.67,   2.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partner Actionplan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.01,  1.48]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.99,  1.17]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.01,   1.11]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.08, 0.07]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.51,   1.50]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily weartime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.00,   1.00]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Between-Person Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean persuasion experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.80,  2.90]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.84,  1.45]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.87,   1.41]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.08, 0.93]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.61,   6.26]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean persuasion utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.83,  2.96]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.82,  1.41]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.81,   1.32]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.17, 0.84]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.32,   3.73]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean pressure experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.34**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.16,  0.73]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.83,  1.60]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.69,   1.19]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.89, 0.19]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.98**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[3.32, 127.03]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean pressure utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.27,  1.21]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.69,  1.34]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.79,   1.35]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.83, 0.26]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.15,   7.47]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean pushing experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean pushing utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean weartime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Random Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Intercept)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.55, 0.96]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.23, 0.40]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.23, 0.38]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.47, 0.78]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.80, 1.79]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily persuasion experienced)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.06, 0.40]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.08, 0.17]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.11]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.49]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily persuasion utilized (partner's view))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.35]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.05, 0.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.15, 0.85]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily pressure experienced)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.66]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.24]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.14]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.23]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.05, 2.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily pressure utilized (partner's view))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.85]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.20]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.12]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.04, 2.64]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily pushing experienced)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily pushing utilized (partner's view))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Additional Parameters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sigma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.66, 0.70]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.56, 0.59]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.94, 0.98]</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="203">
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Subjective MVPA Hurdle Lognormal</t>
+  </si>
+  <si>
+    <t>Device-Based MVPA Log (Gaussian)</t>
+  </si>
+  <si>
+    <t>Mood Gaussian</t>
+  </si>
+  <si>
+    <t>Reactance Dichotome</t>
+  </si>
+  <si>
+    <t>exp(Est.)_hu</t>
+  </si>
+  <si>
+    <t>95% CI_hu</t>
+  </si>
+  <si>
+    <t>exp(Est.)_nonzero</t>
+  </si>
+  <si>
+    <t>95% CI_nonzero</t>
+  </si>
+  <si>
+    <t>exp(Est.)</t>
+  </si>
+  <si>
+    <t>95% CI</t>
+  </si>
+  <si>
+    <t>Est.</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>0.25***</t>
+  </si>
+  <si>
+    <t>[ 0.19,  0.34]</t>
+  </si>
+  <si>
+    <t>38.39***</t>
+  </si>
+  <si>
+    <t>[33.54, 43.98]</t>
+  </si>
+  <si>
+    <t>110.80***</t>
+  </si>
+  <si>
+    <t>[99.60, 123.30]</t>
+  </si>
+  <si>
+    <t>3.65***</t>
+  </si>
+  <si>
+    <t>[ 3.45, 3.87]</t>
+  </si>
+  <si>
+    <t>0.31***</t>
+  </si>
+  <si>
+    <t>[0.16,   0.58]</t>
+  </si>
+  <si>
+    <t>Within-Person Effects</t>
+  </si>
+  <si>
+    <t>Daily persuasion experienced</t>
+  </si>
+  <si>
+    <t>1.54***</t>
+  </si>
+  <si>
+    <t>[ 1.35,  1.79]</t>
+  </si>
+  <si>
+    <t>1.02</t>
+  </si>
+  <si>
+    <t>[ 0.97,  1.08]</t>
+  </si>
+  <si>
+    <t>1.03</t>
+  </si>
+  <si>
+    <t>[ 1.00,   1.06]</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>[-0.04, 0.05]</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>[0.71,   1.02]</t>
+  </si>
+  <si>
+    <t>Daily persuasion utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>1.36***</t>
+  </si>
+  <si>
+    <t>[ 1.22,  1.55]</t>
+  </si>
+  <si>
+    <t>[ 0.98,  1.07]</t>
+  </si>
+  <si>
+    <t>[ 0.99,   1.05]</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>[-0.01, 0.08]</t>
+  </si>
+  <si>
+    <t>1.11</t>
+  </si>
+  <si>
+    <t>[0.87,   1.47]</t>
+  </si>
+  <si>
+    <t>Daily pressure experienced</t>
+  </si>
+  <si>
+    <t>0.97</t>
+  </si>
+  <si>
+    <t>[ 0.73,  1.29]</t>
+  </si>
+  <si>
+    <t>0.90*</t>
+  </si>
+  <si>
+    <t>[ 0.82,  1.00]</t>
+  </si>
+  <si>
+    <t>0.95</t>
+  </si>
+  <si>
+    <t>[ 0.89,   1.01]</t>
+  </si>
+  <si>
+    <t>-0.03</t>
+  </si>
+  <si>
+    <t>[-0.14, 0.07]</t>
+  </si>
+  <si>
+    <t>2.09*</t>
+  </si>
+  <si>
+    <t>[1.19,   4.12]</t>
+  </si>
+  <si>
+    <t>Daily pressure utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>1.58**</t>
+  </si>
+  <si>
+    <t>[ 1.14,  2.41]</t>
+  </si>
+  <si>
+    <t>0.94</t>
+  </si>
+  <si>
+    <t>[ 0.85,  1.02]</t>
+  </si>
+  <si>
+    <t>0.99</t>
+  </si>
+  <si>
+    <t>[ 0.93,   1.05]</t>
+  </si>
+  <si>
+    <t>[-0.11, 0.10]</t>
+  </si>
+  <si>
+    <t>1.32</t>
+  </si>
+  <si>
+    <t>[0.59,   3.77]</t>
+  </si>
+  <si>
+    <t>Daily pushing experienced</t>
+  </si>
+  <si>
+    <t>Daily pushing utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>[ 0.64,  1.13]</t>
+  </si>
+  <si>
+    <t>0.96</t>
+  </si>
+  <si>
+    <t>[ 0.85,  1.08]</t>
+  </si>
+  <si>
+    <t>[ 0.91,   1.04]</t>
+  </si>
+  <si>
+    <t>[ 0.14, 0.36]</t>
+  </si>
+  <si>
+    <t>1.85</t>
+  </si>
+  <si>
+    <t>[0.89,   3.87]</t>
+  </si>
+  <si>
+    <t>Own Actionplan</t>
+  </si>
+  <si>
+    <t>8.94***</t>
+  </si>
+  <si>
+    <t>[ 7.39, 10.87]</t>
+  </si>
+  <si>
+    <t>1.33***</t>
+  </si>
+  <si>
+    <t>[ 1.22,  1.46]</t>
+  </si>
+  <si>
+    <t>1.07**</t>
+  </si>
+  <si>
+    <t>[ 1.02,   1.12]</t>
+  </si>
+  <si>
+    <t>0.11**</t>
+  </si>
+  <si>
+    <t>[ 0.03, 0.18]</t>
+  </si>
+  <si>
+    <t>1.16</t>
+  </si>
+  <si>
+    <t>[0.67,   2.08]</t>
+  </si>
+  <si>
+    <t>Partner Actionplan</t>
+  </si>
+  <si>
+    <t>1.23*</t>
+  </si>
+  <si>
+    <t>[ 1.01,  1.48]</t>
+  </si>
+  <si>
+    <t>1.08</t>
+  </si>
+  <si>
+    <t>[ 0.99,  1.17]</t>
+  </si>
+  <si>
+    <t>1.05*</t>
+  </si>
+  <si>
+    <t>[ 1.01,   1.11]</t>
+  </si>
+  <si>
+    <t>-0.01</t>
+  </si>
+  <si>
+    <t>[-0.08, 0.07]</t>
+  </si>
+  <si>
+    <t>0.88</t>
+  </si>
+  <si>
+    <t>[0.51,   1.50]</t>
+  </si>
+  <si>
+    <t>Daily weartime</t>
+  </si>
+  <si>
+    <t>1.00***</t>
+  </si>
+  <si>
+    <t>[ 1.00,   1.00]</t>
+  </si>
+  <si>
+    <t>Between-Person Effects</t>
+  </si>
+  <si>
+    <t>Mean persuasion experienced</t>
+  </si>
+  <si>
+    <t>1.54</t>
+  </si>
+  <si>
+    <t>[ 0.80,  2.90]</t>
+  </si>
+  <si>
+    <t>1.10</t>
+  </si>
+  <si>
+    <t>[ 0.84,  1.45]</t>
+  </si>
+  <si>
+    <t>[ 0.87,   1.41]</t>
+  </si>
+  <si>
+    <t>0.42</t>
+  </si>
+  <si>
+    <t>[-0.08, 0.93]</t>
+  </si>
+  <si>
+    <t>1.90</t>
+  </si>
+  <si>
+    <t>[0.61,   6.26]</t>
+  </si>
+  <si>
+    <t>Mean persuasion utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>1.59</t>
+  </si>
+  <si>
+    <t>[ 0.83,  2.96]</t>
+  </si>
+  <si>
+    <t>[ 0.82,  1.41]</t>
+  </si>
+  <si>
+    <t>[ 0.81,   1.32]</t>
+  </si>
+  <si>
+    <t>0.34</t>
+  </si>
+  <si>
+    <t>[-0.17, 0.84]</t>
+  </si>
+  <si>
+    <t>1.05</t>
+  </si>
+  <si>
+    <t>[0.32,   3.73]</t>
+  </si>
+  <si>
+    <t>Mean pressure experienced</t>
+  </si>
+  <si>
+    <t>0.34**</t>
+  </si>
+  <si>
+    <t>[ 0.16,  0.73]</t>
+  </si>
+  <si>
+    <t>1.15</t>
+  </si>
+  <si>
+    <t>[ 0.83,  1.60]</t>
+  </si>
+  <si>
+    <t>0.90</t>
+  </si>
+  <si>
+    <t>[ 0.69,   1.19]</t>
+  </si>
+  <si>
+    <t>-0.35</t>
+  </si>
+  <si>
+    <t>[-0.89, 0.19]</t>
+  </si>
+  <si>
+    <t>17.98**</t>
+  </si>
+  <si>
+    <t>[3.32, 127.03]</t>
+  </si>
+  <si>
+    <t>Mean pressure utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>0.56</t>
+  </si>
+  <si>
+    <t>[ 0.27,  1.21]</t>
+  </si>
+  <si>
+    <t>[ 0.69,  1.34]</t>
+  </si>
+  <si>
+    <t>[ 0.79,   1.35]</t>
+  </si>
+  <si>
+    <t>-0.29</t>
+  </si>
+  <si>
+    <t>[-0.83, 0.26]</t>
+  </si>
+  <si>
+    <t>1.18</t>
+  </si>
+  <si>
+    <t>[0.15,   7.47]</t>
+  </si>
+  <si>
+    <t>Mean pushing experienced</t>
+  </si>
+  <si>
+    <t>Mean pushing utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>Mean weartime</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>Random Effects</t>
+  </si>
+  <si>
+    <t>sd(Intercept)</t>
+  </si>
+  <si>
+    <t>0.71</t>
+  </si>
+  <si>
+    <t>[0.55, 0.96]</t>
+  </si>
+  <si>
+    <t>0.30</t>
+  </si>
+  <si>
+    <t>[0.23, 0.40]</t>
+  </si>
+  <si>
+    <t>0.29</t>
+  </si>
+  <si>
+    <t>[0.23, 0.38]</t>
+  </si>
+  <si>
+    <t>0.60</t>
+  </si>
+  <si>
+    <t>[0.47, 0.78]</t>
+  </si>
+  <si>
+    <t>1.21</t>
+  </si>
+  <si>
+    <t>[0.80, 1.79]</t>
+  </si>
+  <si>
+    <t>sd(Daily persuasion experienced)</t>
+  </si>
+  <si>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>[0.06, 0.40]</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>[0.08, 0.17]</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>[0.02, 0.08]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.11]</t>
+  </si>
+  <si>
+    <t>0.20</t>
+  </si>
+  <si>
+    <t>[0.01, 0.49]</t>
+  </si>
+  <si>
+    <t>sd(Daily persuasion utilized (partner's view))</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>[0.01, 0.35]</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>[0.05, 0.13]</t>
+  </si>
+  <si>
+    <t>[0.02, 0.09]</t>
+  </si>
+  <si>
+    <t>[0.02, 0.13]</t>
+  </si>
+  <si>
+    <t>0.43</t>
+  </si>
+  <si>
+    <t>[0.15, 0.85]</t>
+  </si>
+  <si>
+    <t>sd(Daily pressure experienced)</t>
+  </si>
+  <si>
+    <t>0.17</t>
+  </si>
+  <si>
+    <t>[0.01, 0.66]</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>[0.00, 0.24]</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>[0.00, 0.14]</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>[0.00, 0.23]</t>
+  </si>
+  <si>
+    <t>0.77</t>
+  </si>
+  <si>
+    <t>[0.05, 2.08]</t>
+  </si>
+  <si>
+    <t>sd(Daily pressure utilized (partner's view))</t>
+  </si>
+  <si>
+    <t>0.23</t>
+  </si>
+  <si>
+    <t>[0.01, 0.85]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.20]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.12]</t>
+  </si>
+  <si>
+    <t>0.73</t>
+  </si>
+  <si>
+    <t>[0.04, 2.64]</t>
+  </si>
+  <si>
+    <t>sd(Daily pushing experienced)</t>
+  </si>
+  <si>
+    <t>sd(Daily pushing utilized (partner's view))</t>
+  </si>
+  <si>
+    <t>Additional Parameters</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>0.68</t>
+  </si>
+  <si>
+    <t>[0.66, 0.70]</t>
+  </si>
+  <si>
+    <t>0.58</t>
+  </si>
+  <si>
+    <t>[0.56, 0.59]</t>
+  </si>
+  <si>
+    <t>[0.94, 0.98]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -642,16 +649,16 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <b/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <i/>
     </font>
   </fonts>
   <fills count="2">
@@ -671,20 +678,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -700,20 +715,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -995,49 +1025,64 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:K4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="38.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.76953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.76953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.2265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.2265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.2265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.90625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1072,7 +1117,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -1107,43 +1152,43 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -1177,8 +1222,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A6" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1212,8 +1257,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A7" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1247,8 +1292,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A8" s="7" t="s">
         <v>56</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1282,8 +1327,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A9" s="7" t="s">
         <v>66</v>
       </c>
       <c r="B9" s="1"/>
@@ -1297,8 +1342,8 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A10" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B10" s="1"/>
@@ -1312,8 +1357,8 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A11" s="7" t="s">
         <v>68</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1347,8 +1392,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A12" s="7" t="s">
         <v>76</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1382,8 +1427,8 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A13" s="7" t="s">
         <v>87</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -1417,8 +1462,8 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A14" s="7" t="s">
         <v>98</v>
       </c>
       <c r="B14" s="1"/>
@@ -1436,43 +1481,43 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A15" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" s="11" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A16" s="7" t="s">
         <v>102</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1506,8 +1551,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A17" s="7" t="s">
         <v>112</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1541,8 +1586,8 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A18" s="7" t="s">
         <v>121</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -1576,8 +1621,8 @@
         <v>131</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A19" s="7" t="s">
         <v>132</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1611,8 +1656,8 @@
         <v>140</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A20" s="7" t="s">
         <v>141</v>
       </c>
       <c r="B20" s="1"/>
@@ -1626,8 +1671,8 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A21" s="7" t="s">
         <v>142</v>
       </c>
       <c r="B21" s="1"/>
@@ -1641,8 +1686,8 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A22" s="7" t="s">
         <v>143</v>
       </c>
       <c r="B22" s="1"/>
@@ -1660,43 +1705,43 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23">
-      <c r="A23" s="7" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A23" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J23" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="K23" s="11" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="8" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A24" s="7" t="s">
         <v>146</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1730,8 +1775,8 @@
         <v>156</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A25" s="7" t="s">
         <v>157</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1765,8 +1810,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="8" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A26" s="7" t="s">
         <v>167</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1800,8 +1845,8 @@
         <v>175</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="8" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A27" s="7" t="s">
         <v>176</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1835,8 +1880,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="8" t="s">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A28" s="7" t="s">
         <v>187</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1870,8 +1915,8 @@
         <v>193</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="8" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A29" s="7" t="s">
         <v>194</v>
       </c>
       <c r="B29" s="1"/>
@@ -1885,8 +1930,8 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30">
-      <c r="A30" s="8" t="s">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A30" s="7" t="s">
         <v>195</v>
       </c>
       <c r="B30" s="1"/>
@@ -1900,43 +1945,43 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31">
-      <c r="A31" s="7" t="s">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A31" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H31" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I31" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="J31" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="K31" s="11" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="9" t="s">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A32" s="8" t="s">
         <v>197</v>
       </c>
       <c r="B32" s="4"/>
@@ -1962,36 +2007,36 @@
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
     </row>
-    <row r="33">
-      <c r="A33" s="8"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="8"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="8"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="8"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="8"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="8"/>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A33" s="7"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A34" s="7"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A35" s="7"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A36" s="7"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A37" s="7"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A38" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="A31:K31"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A15:K15"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="A31:K31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Output/AllModels_sensitivityNoPushing_12000.xlsx
+++ b/Output/AllModels_sensitivityNoPushing_12000.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kueng\DataAnalysis\02TimeAndTiesControl_updatedBRMS\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pascku\Repos\02TimeAndTiesControl\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F652DD-3D43-4009-AB94-6B6280D88181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36A40D0-5065-452C-A21F-EBF4639D1734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,22 +70,22 @@
     <t>[ 0.19,  0.34]</t>
   </si>
   <si>
-    <t>38.39***</t>
-  </si>
-  <si>
-    <t>[33.54, 43.98]</t>
-  </si>
-  <si>
-    <t>110.80***</t>
-  </si>
-  <si>
-    <t>[99.60, 123.30]</t>
-  </si>
-  <si>
-    <t>3.65***</t>
-  </si>
-  <si>
-    <t>[ 3.45, 3.87]</t>
+    <t>38.32***</t>
+  </si>
+  <si>
+    <t>[33.52, 43.92]</t>
+  </si>
+  <si>
+    <t>110.62***</t>
+  </si>
+  <si>
+    <t>[99.72, 122.78]</t>
+  </si>
+  <si>
+    <t>3.66***</t>
+  </si>
+  <si>
+    <t>[ 3.45, 3.86]</t>
   </si>
   <si>
     <t>0.31***</t>
@@ -100,48 +100,48 @@
     <t>Daily persuasion experienced</t>
   </si>
   <si>
-    <t>1.54***</t>
-  </si>
-  <si>
-    <t>[ 1.35,  1.79]</t>
+    <t>1.53***</t>
+  </si>
+  <si>
+    <t>[ 1.35,  1.77]</t>
+  </si>
+  <si>
+    <t>1.03</t>
+  </si>
+  <si>
+    <t>[ 0.98,  1.08]</t>
+  </si>
+  <si>
+    <t>[ 1.00,   1.06]</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>[-0.04, 0.05]</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>[0.70,   1.02]</t>
+  </si>
+  <si>
+    <t>Daily persuasion utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>1.36***</t>
+  </si>
+  <si>
+    <t>[ 1.22,  1.54]</t>
+  </si>
+  <si>
+    <t>[ 0.98,  1.07]</t>
   </si>
   <si>
     <t>1.02</t>
   </si>
   <si>
-    <t>[ 0.97,  1.08]</t>
-  </si>
-  <si>
-    <t>1.03</t>
-  </si>
-  <si>
-    <t>[ 1.00,   1.06]</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>[-0.04, 0.05]</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>[0.71,   1.02]</t>
-  </si>
-  <si>
-    <t>Daily persuasion utilized (partner's view)</t>
-  </si>
-  <si>
-    <t>1.36***</t>
-  </si>
-  <si>
-    <t>[ 1.22,  1.55]</t>
-  </si>
-  <si>
-    <t>[ 0.98,  1.07]</t>
-  </si>
-  <si>
     <t>[ 0.99,   1.05]</t>
   </si>
   <si>
@@ -163,31 +163,31 @@
     <t>0.97</t>
   </si>
   <si>
-    <t>[ 0.73,  1.29]</t>
+    <t>[ 0.73,  1.31]</t>
   </si>
   <si>
     <t>0.90*</t>
   </si>
   <si>
-    <t>[ 0.82,  1.00]</t>
+    <t>[ 0.82,  0.99]</t>
   </si>
   <si>
     <t>0.95</t>
   </si>
   <si>
-    <t>[ 0.89,   1.01]</t>
+    <t>[ 0.89,   1.02]</t>
   </si>
   <si>
     <t>-0.03</t>
   </si>
   <si>
-    <t>[-0.14, 0.07]</t>
+    <t>[-0.13, 0.07]</t>
   </si>
   <si>
     <t>2.09*</t>
   </si>
   <si>
-    <t>[1.19,   4.12]</t>
+    <t>[1.19,   4.16]</t>
   </si>
   <si>
     <t>Daily pressure utilized (partner's view)</t>
@@ -196,7 +196,7 @@
     <t>1.58**</t>
   </si>
   <si>
-    <t>[ 1.14,  2.41]</t>
+    <t>[ 1.13,  2.46]</t>
   </si>
   <si>
     <t>0.94</t>
@@ -211,13 +211,13 @@
     <t>[ 0.93,   1.05]</t>
   </si>
   <si>
-    <t>[-0.11, 0.10]</t>
+    <t>[-0.10, 0.10]</t>
   </si>
   <si>
     <t>1.32</t>
   </si>
   <si>
-    <t>[0.59,   3.77]</t>
+    <t>[0.60,   3.88]</t>
   </si>
   <si>
     <t>Daily pushing experienced</t>
@@ -229,7 +229,7 @@
     <t>Day</t>
   </si>
   <si>
-    <t>[ 0.64,  1.13]</t>
+    <t>[ 0.64,  1.14]</t>
   </si>
   <si>
     <t>0.96</t>
@@ -241,28 +241,28 @@
     <t>[ 0.91,   1.04]</t>
   </si>
   <si>
-    <t>[ 0.14, 0.36]</t>
-  </si>
-  <si>
-    <t>1.85</t>
-  </si>
-  <si>
-    <t>[0.89,   3.87]</t>
+    <t>[ 0.15, 0.36]</t>
+  </si>
+  <si>
+    <t>1.87</t>
+  </si>
+  <si>
+    <t>[0.89,   3.84]</t>
   </si>
   <si>
     <t>Own Actionplan</t>
   </si>
   <si>
-    <t>8.94***</t>
-  </si>
-  <si>
-    <t>[ 7.39, 10.87]</t>
+    <t>8.93***</t>
+  </si>
+  <si>
+    <t>[ 7.39, 10.84]</t>
   </si>
   <si>
     <t>1.33***</t>
   </si>
   <si>
-    <t>[ 1.22,  1.46]</t>
+    <t>[ 1.21,  1.46]</t>
   </si>
   <si>
     <t>1.07**</t>
@@ -277,10 +277,10 @@
     <t>[ 0.03, 0.18]</t>
   </si>
   <si>
-    <t>1.16</t>
-  </si>
-  <si>
-    <t>[0.67,   2.08]</t>
+    <t>1.17</t>
+  </si>
+  <si>
+    <t>[0.66,   2.07]</t>
   </si>
   <si>
     <t>Partner Actionplan</t>
@@ -289,13 +289,13 @@
     <t>1.23*</t>
   </si>
   <si>
-    <t>[ 1.01,  1.48]</t>
-  </si>
-  <si>
-    <t>1.08</t>
-  </si>
-  <si>
-    <t>[ 0.99,  1.17]</t>
+    <t>[ 1.02,  1.48]</t>
+  </si>
+  <si>
+    <t>1.07</t>
+  </si>
+  <si>
+    <t>[ 0.99,  1.16]</t>
   </si>
   <si>
     <t>1.05*</t>
@@ -310,10 +310,10 @@
     <t>[-0.08, 0.07]</t>
   </si>
   <si>
-    <t>0.88</t>
-  </si>
-  <si>
-    <t>[0.51,   1.50]</t>
+    <t>0.87</t>
+  </si>
+  <si>
+    <t>[0.51,   1.49]</t>
   </si>
   <si>
     <t>Daily weartime</t>
@@ -331,118 +331,118 @@
     <t>Mean persuasion experienced</t>
   </si>
   <si>
-    <t>1.54</t>
-  </si>
-  <si>
-    <t>[ 0.80,  2.90]</t>
+    <t>1.59</t>
+  </si>
+  <si>
+    <t>[ 0.83,  2.99]</t>
+  </si>
+  <si>
+    <t>[ 0.81,  1.39]</t>
   </si>
   <si>
     <t>1.10</t>
   </si>
   <si>
-    <t>[ 0.84,  1.45]</t>
-  </si>
-  <si>
-    <t>[ 0.87,   1.41]</t>
+    <t>[ 0.86,   1.40]</t>
   </si>
   <si>
     <t>0.42</t>
   </si>
   <si>
-    <t>[-0.08, 0.93]</t>
-  </si>
-  <si>
-    <t>1.90</t>
-  </si>
-  <si>
-    <t>[0.61,   6.26]</t>
+    <t>[-0.09, 0.93]</t>
+  </si>
+  <si>
+    <t>1.89</t>
+  </si>
+  <si>
+    <t>[0.62,   6.10]</t>
   </si>
   <si>
     <t>Mean persuasion utilized (partner's view)</t>
   </si>
   <si>
-    <t>1.59</t>
-  </si>
-  <si>
-    <t>[ 0.83,  2.96]</t>
-  </si>
-  <si>
-    <t>[ 0.82,  1.41]</t>
-  </si>
-  <si>
-    <t>[ 0.81,   1.32]</t>
+    <t>1.64</t>
+  </si>
+  <si>
+    <t>[ 0.85,  3.10]</t>
+  </si>
+  <si>
+    <t>1.04</t>
+  </si>
+  <si>
+    <t>[ 0.79,  1.35]</t>
+  </si>
+  <si>
+    <t>[ 0.80,   1.32]</t>
   </si>
   <si>
     <t>0.34</t>
   </si>
   <si>
-    <t>[-0.17, 0.84]</t>
+    <t>[-0.17, 0.85]</t>
   </si>
   <si>
     <t>1.05</t>
   </si>
   <si>
-    <t>[0.32,   3.73]</t>
+    <t>[0.32,   3.64]</t>
   </si>
   <si>
     <t>Mean pressure experienced</t>
   </si>
   <si>
-    <t>0.34**</t>
-  </si>
-  <si>
-    <t>[ 0.16,  0.73]</t>
-  </si>
-  <si>
-    <t>1.15</t>
-  </si>
-  <si>
-    <t>[ 0.83,  1.60]</t>
-  </si>
-  <si>
-    <t>0.90</t>
-  </si>
-  <si>
-    <t>[ 0.69,   1.19]</t>
-  </si>
-  <si>
-    <t>-0.35</t>
-  </si>
-  <si>
-    <t>[-0.89, 0.19]</t>
-  </si>
-  <si>
-    <t>17.98**</t>
-  </si>
-  <si>
-    <t>[3.32, 127.03]</t>
+    <t>0.33**</t>
+  </si>
+  <si>
+    <t>[ 0.15,  0.71]</t>
+  </si>
+  <si>
+    <t>1.19</t>
+  </si>
+  <si>
+    <t>[ 0.86,  1.65]</t>
+  </si>
+  <si>
+    <t>0.91</t>
+  </si>
+  <si>
+    <t>[ 0.69,   1.20]</t>
+  </si>
+  <si>
+    <t>-0.36</t>
+  </si>
+  <si>
+    <t>[-0.90, 0.19]</t>
+  </si>
+  <si>
+    <t>18.19***</t>
+  </si>
+  <si>
+    <t>[3.23, 126.21]</t>
   </si>
   <si>
     <t>Mean pressure utilized (partner's view)</t>
   </si>
   <si>
-    <t>0.56</t>
-  </si>
-  <si>
-    <t>[ 0.27,  1.21]</t>
-  </si>
-  <si>
-    <t>[ 0.69,  1.34]</t>
-  </si>
-  <si>
-    <t>[ 0.79,   1.35]</t>
+    <t>0.55</t>
+  </si>
+  <si>
+    <t>[ 0.26,  1.20]</t>
+  </si>
+  <si>
+    <t>[ 0.71,  1.37]</t>
+  </si>
+  <si>
+    <t>[ 0.79,   1.36]</t>
   </si>
   <si>
     <t>-0.29</t>
   </si>
   <si>
-    <t>[-0.83, 0.26]</t>
-  </si>
-  <si>
-    <t>1.18</t>
-  </si>
-  <si>
-    <t>[0.15,   7.47]</t>
+    <t>[-0.83, 0.27]</t>
+  </si>
+  <si>
+    <t>[0.16,   7.82]</t>
   </si>
   <si>
     <t>Mean pushing experienced</t>
@@ -463,16 +463,16 @@
     <t>sd(Intercept)</t>
   </si>
   <si>
-    <t>0.71</t>
-  </si>
-  <si>
-    <t>[0.55, 0.96]</t>
+    <t>0.72</t>
+  </si>
+  <si>
+    <t>[0.55, 0.97]</t>
   </si>
   <si>
     <t>0.30</t>
   </si>
   <si>
-    <t>[0.23, 0.40]</t>
+    <t>[0.23, 0.39]</t>
   </si>
   <si>
     <t>0.29</t>
@@ -484,13 +484,13 @@
     <t>0.60</t>
   </si>
   <si>
-    <t>[0.47, 0.78]</t>
+    <t>[0.48, 0.78]</t>
   </si>
   <si>
     <t>1.21</t>
   </si>
   <si>
-    <t>[0.80, 1.79]</t>
+    <t>[0.81, 1.80]</t>
   </si>
   <si>
     <t>sd(Daily persuasion experienced)</t>
@@ -499,13 +499,13 @@
     <t>0.22</t>
   </si>
   <si>
-    <t>[0.06, 0.40]</t>
-  </si>
-  <si>
-    <t>0.12</t>
-  </si>
-  <si>
-    <t>[0.08, 0.17]</t>
+    <t>[0.05, 0.40]</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>[0.07, 0.17]</t>
   </si>
   <si>
     <t>0.05</t>
@@ -520,22 +520,22 @@
     <t>0.20</t>
   </si>
   <si>
-    <t>[0.01, 0.49]</t>
+    <t>[0.01, 0.50]</t>
   </si>
   <si>
     <t>sd(Daily persuasion utilized (partner's view))</t>
   </si>
   <si>
-    <t>0.16</t>
-  </si>
-  <si>
-    <t>[0.01, 0.35]</t>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>[0.01, 0.33]</t>
   </si>
   <si>
     <t>0.08</t>
   </si>
   <si>
-    <t>[0.05, 0.13]</t>
+    <t>[0.04, 0.13]</t>
   </si>
   <si>
     <t>[0.02, 0.09]</t>
@@ -544,7 +544,7 @@
     <t>[0.02, 0.13]</t>
   </si>
   <si>
-    <t>0.43</t>
+    <t>0.44</t>
   </si>
   <si>
     <t>[0.15, 0.85]</t>
@@ -553,10 +553,10 @@
     <t>sd(Daily pressure experienced)</t>
   </si>
   <si>
-    <t>0.17</t>
-  </si>
-  <si>
-    <t>[0.01, 0.66]</t>
+    <t>0.18</t>
+  </si>
+  <si>
+    <t>[0.01, 0.69]</t>
   </si>
   <si>
     <t>0.07</t>
@@ -580,28 +580,28 @@
     <t>0.77</t>
   </si>
   <si>
-    <t>[0.05, 2.08]</t>
+    <t>[0.05, 2.09]</t>
   </si>
   <si>
     <t>sd(Daily pressure utilized (partner's view))</t>
   </si>
   <si>
-    <t>0.23</t>
-  </si>
-  <si>
-    <t>[0.01, 0.85]</t>
-  </si>
-  <si>
-    <t>[0.00, 0.20]</t>
+    <t>0.24</t>
+  </si>
+  <si>
+    <t>[0.01, 0.91]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.19]</t>
   </si>
   <si>
     <t>[0.00, 0.12]</t>
   </si>
   <si>
-    <t>0.73</t>
-  </si>
-  <si>
-    <t>[0.04, 2.64]</t>
+    <t>0.74</t>
+  </si>
+  <si>
+    <t>[0.03, 2.66]</t>
   </si>
   <si>
     <t>sd(Daily pushing experienced)</t>
@@ -619,7 +619,7 @@
     <t>0.68</t>
   </si>
   <si>
-    <t>[0.66, 0.70]</t>
+    <t>[0.66, 0.71]</t>
   </si>
   <si>
     <t>0.58</t>
@@ -1029,25 +1029,25 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:K4"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="38.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.76953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.76953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.2265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.2265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.2265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.06640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.06640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.06640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>24</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
         <v>25</v>
       </c>
@@ -1204,42 +1204,42 @@
         <v>29</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6" s="7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>40</v>
@@ -1257,7 +1257,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
         <v>45</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
         <v>56</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>62</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>63</v>
@@ -1327,7 +1327,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
         <v>66</v>
       </c>
@@ -1342,7 +1342,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
         <v>67</v>
       </c>
@@ -1357,12 +1357,12 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
         <v>68</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>69</v>
@@ -1392,7 +1392,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="7" t="s">
         <v>76</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
         <v>87</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
         <v>98</v>
       </c>
@@ -1481,7 +1481,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="10" t="s">
         <v>101</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
         <v>102</v>
       </c>
@@ -1527,13 +1527,13 @@
         <v>104</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>107</v>
@@ -1551,7 +1551,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="7" t="s">
         <v>112</v>
       </c>
@@ -1562,101 +1562,101 @@
         <v>114</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A18" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="G19" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A19" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="7" t="s">
         <v>141</v>
       </c>
@@ -1671,7 +1671,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="7" t="s">
         <v>142</v>
       </c>
@@ -1686,7 +1686,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="7" t="s">
         <v>143</v>
       </c>
@@ -1705,7 +1705,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="10" t="s">
         <v>145</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" s="7" t="s">
         <v>146</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="7" t="s">
         <v>157</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="7" t="s">
         <v>167</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" s="7" t="s">
         <v>176</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="7" t="s">
         <v>187</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>189</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>190</v>
@@ -1915,7 +1915,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" s="7" t="s">
         <v>194</v>
       </c>
@@ -1930,7 +1930,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" s="7" t="s">
         <v>195</v>
       </c>
@@ -1945,7 +1945,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" s="10" t="s">
         <v>196</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" s="8" t="s">
         <v>197</v>
       </c>
@@ -2007,22 +2007,22 @@
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" s="7"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" s="7"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" s="7"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" s="7"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" s="7"/>
     </row>
   </sheetData>

--- a/Output/AllModels_sensitivityNoPushing_12000.xlsx
+++ b/Output/AllModels_sensitivityNoPushing_12000.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="396">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -32,19 +32,61 @@
     <t xml:space="preserve">exp(Est.)_hu</t>
   </si>
   <si>
-    <t xml:space="preserve">95% CI_hu</t>
+    <t xml:space="preserve">SE_hu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pd_hu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROPE_hu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inside</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BF_hu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BF_Evidence_hu</t>
   </si>
   <si>
     <t xml:space="preserve">exp(Est.)_nonzero</t>
   </si>
   <si>
-    <t xml:space="preserve">95% CI_nonzero</t>
+    <t xml:space="preserve">SE_nonzero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pd_nonzero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROPE_nonzero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BF_nonzero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BF_Evidence_nonzero</t>
   </si>
   <si>
     <t xml:space="preserve">exp(Est.)</t>
   </si>
   <si>
-    <t xml:space="preserve">95% CI</t>
+    <t xml:space="preserve">SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BF_Evidence</t>
   </si>
   <si>
     <t xml:space="preserve">Est.</t>
@@ -59,37 +101,85 @@
     <t xml:space="preserve">0.25***</t>
   </si>
   <si>
+    <t xml:space="preserve">0.04</t>
+  </si>
+  <si>
     <t xml:space="preserve">[ 0.19,  0.34]</t>
   </si>
   <si>
+    <t xml:space="preserve">1.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.84, 1.20]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overwhelming Evidence</t>
+  </si>
+  <si>
     <t xml:space="preserve">38.36***</t>
   </si>
   <si>
+    <t xml:space="preserve">2.62</t>
+  </si>
+  <si>
     <t xml:space="preserve">[33.53, 43.91]</t>
   </si>
   <si>
+    <t xml:space="preserve">[0.92, 1.08]</t>
+  </si>
+  <si>
     <t xml:space="preserve">110.60***</t>
   </si>
   <si>
+    <t xml:space="preserve">5.86</t>
+  </si>
+  <si>
     <t xml:space="preserve">[99.48, 123.12]</t>
   </si>
   <si>
+    <t xml:space="preserve">[0.94, 1.07]</t>
+  </si>
+  <si>
     <t xml:space="preserve">3.66***</t>
   </si>
   <si>
+    <t xml:space="preserve">0.10</t>
+  </si>
+  <si>
     <t xml:space="preserve">[ 3.45, 3.86]</t>
   </si>
   <si>
+    <t xml:space="preserve">[-0.11, 0.11]</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.31***</t>
   </si>
   <si>
     <t xml:space="preserve">[0.17,   0.58]</t>
   </si>
   <si>
+    <t xml:space="preserve">[0.83, 1.20]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strong Evidence</t>
+  </si>
+  <si>
     <t xml:space="preserve">Within-Person Effects</t>
   </si>
   <si>
-    <t xml:space="preserve">Daily persuasion experienced</t>
+    <t xml:space="preserve">Daily individual's experienced persuasion</t>
   </si>
   <si>
     <t xml:space="preserve">1.53***</t>
@@ -101,25 +191,79 @@
     <t xml:space="preserve">1.03</t>
   </si>
   <si>
+    <t xml:space="preserve">0.03</t>
+  </si>
+  <si>
     <t xml:space="preserve">[ 0.97,  1.08]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very Strong Evidence for Null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.01</t>
+  </si>
+  <si>
     <t xml:space="preserve">[ 1.00,   1.06]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strong Evidence for Null</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.00</t>
   </si>
   <si>
+    <t xml:space="preserve">0.02</t>
+  </si>
+  <si>
     <t xml:space="preserve">[-0.04, 0.05]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.004</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.86</t>
   </si>
   <si>
+    <t xml:space="preserve">0.08</t>
+  </si>
+  <si>
     <t xml:space="preserve">[0.70,   1.02]</t>
   </si>
   <si>
-    <t xml:space="preserve">Daily persuasion utilized (partner's view)</t>
+    <t xml:space="preserve">0.959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moderate Evidence for Null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily partner's experienced persuasion</t>
   </si>
   <si>
     <t xml:space="preserve">1.36***</t>
@@ -128,94 +272,232 @@
     <t xml:space="preserve">[ 1.22,  1.54]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.013</t>
+  </si>
+  <si>
     <t xml:space="preserve">[ 0.98,  1.07]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.989</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.02</t>
   </si>
   <si>
     <t xml:space="preserve">[ 0.99,   1.05]</t>
   </si>
   <si>
-    <t xml:space="preserve">0.03</t>
+    <t xml:space="preserve">0.877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.011</t>
   </si>
   <si>
     <t xml:space="preserve">[-0.01, 0.08]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.010</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.12</t>
   </si>
   <si>
+    <t xml:space="preserve">0.15</t>
+  </si>
+  <si>
     <t xml:space="preserve">[0.87,   1.48]</t>
   </si>
   <si>
-    <t xml:space="preserve">Daily pressure experienced</t>
+    <t xml:space="preserve">0.807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily individual's experienced pressure</t>
   </si>
   <si>
     <t xml:space="preserve">0.97</t>
   </si>
   <si>
+    <t xml:space="preserve">0.14</t>
+  </si>
+  <si>
     <t xml:space="preserve">[ 0.73,  1.30]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.580</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.072</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.90*</t>
   </si>
   <si>
     <t xml:space="preserve">[ 0.82,  1.00]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.063</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.95</t>
   </si>
   <si>
     <t xml:space="preserve">[ 0.89,   1.02]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.016</t>
+  </si>
+  <si>
     <t xml:space="preserve">-0.03</t>
   </si>
   <si>
+    <t xml:space="preserve">0.05</t>
+  </si>
+  <si>
     <t xml:space="preserve">[-0.14, 0.07]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.942</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.09*</t>
   </si>
   <si>
+    <t xml:space="preserve">0.56</t>
+  </si>
+  <si>
     <t xml:space="preserve">[1.18,   4.21]</t>
   </si>
   <si>
-    <t xml:space="preserve">Daily pressure utilized (partner's view)</t>
+    <t xml:space="preserve">0.990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weak Evidence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily partner's experienced pressure</t>
   </si>
   <si>
     <t xml:space="preserve">1.58**</t>
   </si>
   <si>
+    <t xml:space="preserve">0.29</t>
+  </si>
+  <si>
     <t xml:space="preserve">[ 1.14,  2.42]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moderate Evidence</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.94</t>
   </si>
   <si>
     <t xml:space="preserve">[ 0.85,  1.02]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.020</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.99</t>
   </si>
   <si>
     <t xml:space="preserve">[ 0.93,   1.05]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.005</t>
+  </si>
+  <si>
     <t xml:space="preserve">[-0.10, 0.10]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.967</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.31</t>
   </si>
   <si>
+    <t xml:space="preserve">0.51</t>
+  </si>
+  <si>
     <t xml:space="preserve">[0.57,   3.94]</t>
   </si>
   <si>
-    <t xml:space="preserve">Daily pushing experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily pushing utilized (partner's view)</t>
+    <t xml:space="preserve">0.762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily individual's experienced pushing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily partner's experienced pushing</t>
   </si>
   <si>
     <t xml:space="preserve">Day</t>
@@ -224,33 +506,90 @@
     <t xml:space="preserve">0.85</t>
   </si>
   <si>
+    <t xml:space="preserve">0.12</t>
+  </si>
+  <si>
     <t xml:space="preserve">[ 0.64,  1.14]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.96</t>
   </si>
   <si>
+    <t xml:space="preserve">0.06</t>
+  </si>
+  <si>
     <t xml:space="preserve">[ 0.86,  1.08]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.720</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.009</t>
+  </si>
+  <si>
     <t xml:space="preserve">[ 0.91,   1.04]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.006</t>
+  </si>
+  <si>
     <t xml:space="preserve">[ 0.14, 0.36]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.820</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very Strong Evidence</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.87</t>
   </si>
   <si>
+    <t xml:space="preserve">0.70</t>
+  </si>
+  <si>
     <t xml:space="preserve">[0.90,   3.95]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.181</t>
+  </si>
+  <si>
     <t xml:space="preserve">Own Actionplan</t>
   </si>
   <si>
     <t xml:space="preserve">8.93***</t>
   </si>
   <si>
+    <t xml:space="preserve">0.88</t>
+  </si>
+  <si>
     <t xml:space="preserve">[ 7.40, 10.83]</t>
   </si>
   <si>
@@ -266,18 +605,45 @@
     <t xml:space="preserve">[ 1.02,   1.12]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.11**</t>
   </si>
   <si>
     <t xml:space="preserve">[ 0.03, 0.18]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.217</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.17</t>
   </si>
   <si>
+    <t xml:space="preserve">0.34</t>
+  </si>
+  <si>
     <t xml:space="preserve">[0.66,   2.09]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.051</t>
+  </si>
+  <si>
     <t xml:space="preserve">Partner Actionplan</t>
   </si>
   <si>
@@ -287,30 +653,78 @@
     <t xml:space="preserve">[ 1.01,  1.48]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weak Evidence for Null</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.07</t>
   </si>
   <si>
     <t xml:space="preserve">[ 0.99,  1.16]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.028</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.06*</t>
   </si>
   <si>
     <t xml:space="preserve">[ 1.01,   1.11]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.046</t>
+  </si>
+  <si>
     <t xml:space="preserve">-0.01</t>
   </si>
   <si>
     <t xml:space="preserve">[-0.08, 0.07]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.003</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.87</t>
   </si>
   <si>
+    <t xml:space="preserve">0.24</t>
+  </si>
+  <si>
     <t xml:space="preserve">[0.51,   1.50]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.049</t>
+  </si>
+  <si>
     <t xml:space="preserve">Daily weartime</t>
   </si>
   <si>
@@ -320,10 +734,13 @@
     <t xml:space="preserve">[ 1.00,   1.00]</t>
   </si>
   <si>
+    <t xml:space="preserve">16.959</t>
+  </si>
+  <si>
     <t xml:space="preserve">Between-Person Effects</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean persuasion experienced</t>
+    <t xml:space="preserve">Mean individual's experienced persuasion</t>
   </si>
   <si>
     <t xml:space="preserve">1.59</t>
@@ -332,58 +749,145 @@
     <t xml:space="preserve">[ 0.83,  3.02]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.920</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.441</t>
+  </si>
+  <si>
     <t xml:space="preserve">[ 0.81,  1.40]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.389</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.10</t>
   </si>
   <si>
     <t xml:space="preserve">[ 0.86,   1.41]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.017</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.42</t>
   </si>
   <si>
+    <t xml:space="preserve">0.25</t>
+  </si>
+  <si>
     <t xml:space="preserve">[-0.09, 0.93]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.055</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.72</t>
   </si>
   <si>
+    <t xml:space="preserve">1.09</t>
+  </si>
+  <si>
     <t xml:space="preserve">[0.50,   6.33]</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean persuasion utilized (partner's view)</t>
+    <t xml:space="preserve">0.805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean partner's experienced persuasion</t>
   </si>
   <si>
     <t xml:space="preserve">1.64</t>
   </si>
   <si>
+    <t xml:space="preserve">0.52</t>
+  </si>
+  <si>
     <t xml:space="preserve">[ 0.85,  3.10]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.512</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.04</t>
   </si>
   <si>
     <t xml:space="preserve">[ 0.79,  1.36]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13</t>
+  </si>
+  <si>
     <t xml:space="preserve">[ 0.80,   1.32]</t>
   </si>
   <si>
-    <t xml:space="preserve">0.34</t>
+    <t xml:space="preserve">0.584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.384</t>
   </si>
   <si>
     <t xml:space="preserve">[-0.18, 0.84]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.033</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.98</t>
   </si>
   <si>
+    <t xml:space="preserve">0.66</t>
+  </si>
+  <si>
     <t xml:space="preserve">[0.27,   4.01]</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean pressure experienced</t>
+    <t xml:space="preserve">0.510</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean individual's experienced pressure</t>
   </si>
   <si>
     <t xml:space="preserve">0.33**</t>
@@ -392,58 +896,136 @@
     <t xml:space="preserve">[ 0.15,  0.71]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.697</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.19</t>
   </si>
   <si>
+    <t xml:space="preserve">0.20</t>
+  </si>
+  <si>
     <t xml:space="preserve">[ 0.86,  1.65]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.019</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.91</t>
   </si>
   <si>
     <t xml:space="preserve">[ 0.69,   1.20]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.281</t>
+  </si>
+  <si>
     <t xml:space="preserve">-0.35</t>
   </si>
   <si>
+    <t xml:space="preserve">0.27</t>
+  </si>
+  <si>
     <t xml:space="preserve">[-0.90, 0.19]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.022</t>
+  </si>
+  <si>
     <t xml:space="preserve">22.85***</t>
   </si>
   <si>
+    <t xml:space="preserve">23.23</t>
+  </si>
+  <si>
     <t xml:space="preserve">[3.51, 215.28]</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean pressure utilized (partner's view)</t>
+    <t xml:space="preserve">16.863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean partner's experienced pressure</t>
   </si>
   <si>
     <t xml:space="preserve">0.55</t>
   </si>
   <si>
+    <t xml:space="preserve">0.22</t>
+  </si>
+  <si>
     <t xml:space="preserve">[ 0.25,  1.21]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16</t>
+  </si>
+  <si>
     <t xml:space="preserve">[ 0.71,  1.36]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.360</t>
+  </si>
+  <si>
     <t xml:space="preserve">[ 0.79,   1.36]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.354</t>
+  </si>
+  <si>
     <t xml:space="preserve">-0.29</t>
   </si>
   <si>
     <t xml:space="preserve">[-0.84, 0.26]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.192</t>
+  </si>
+  <si>
     <t xml:space="preserve">[0.10,   7.31]</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean pushing experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean pushing utilized (partner's view)</t>
+    <t xml:space="preserve">0.516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean individual's experienced pushing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean partner's experienced pushing</t>
   </si>
   <si>
     <t xml:space="preserve">Mean weartime</t>
@@ -452,6 +1034,12 @@
     <t xml:space="preserve">1.00</t>
   </si>
   <si>
+    <t xml:space="preserve">0.919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.018</t>
+  </si>
+  <si>
     <t xml:space="preserve">Random Effects</t>
   </si>
   <si>
@@ -470,9 +1058,6 @@
     <t xml:space="preserve">[0.23, 0.39]</t>
   </si>
   <si>
-    <t xml:space="preserve">0.29</t>
-  </si>
-  <si>
     <t xml:space="preserve">[0.23, 0.38]</t>
   </si>
   <si>
@@ -488,10 +1073,10 @@
     <t xml:space="preserve">[0.82, 1.83]</t>
   </si>
   <si>
-    <t xml:space="preserve">sd(Daily persuasion experienced)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.22</t>
+    <t xml:space="preserve">sd(Daily individual's experienced persuasion)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.09</t>
   </si>
   <si>
     <t xml:space="preserve">[0.05, 0.40]</t>
@@ -503,33 +1088,21 @@
     <t xml:space="preserve">[0.08, 0.17]</t>
   </si>
   <si>
-    <t xml:space="preserve">0.05</t>
-  </si>
-  <si>
     <t xml:space="preserve">[0.02, 0.08]</t>
   </si>
   <si>
     <t xml:space="preserve">[0.00, 0.11]</t>
   </si>
   <si>
-    <t xml:space="preserve">0.20</t>
-  </si>
-  <si>
     <t xml:space="preserve">[0.01, 0.49]</t>
   </si>
   <si>
-    <t xml:space="preserve">sd(Daily persuasion utilized (partner's view))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14</t>
+    <t xml:space="preserve">sd(Daily partner's experienced persuasion)</t>
   </si>
   <si>
     <t xml:space="preserve">[0.01, 0.33]</t>
   </si>
   <si>
-    <t xml:space="preserve">0.08</t>
-  </si>
-  <si>
     <t xml:space="preserve">[0.04, 0.13]</t>
   </si>
   <si>
@@ -542,10 +1115,13 @@
     <t xml:space="preserve">0.44</t>
   </si>
   <si>
+    <t xml:space="preserve">0.17</t>
+  </si>
+  <si>
     <t xml:space="preserve">[0.14, 0.85]</t>
   </si>
   <si>
-    <t xml:space="preserve">sd(Daily pressure experienced)</t>
+    <t xml:space="preserve">sd(Daily individual's experienced pressure)</t>
   </si>
   <si>
     <t xml:space="preserve">0.18</t>
@@ -560,28 +1136,25 @@
     <t xml:space="preserve">[0.00, 0.24]</t>
   </si>
   <si>
-    <t xml:space="preserve">0.04</t>
-  </si>
-  <si>
     <t xml:space="preserve">[0.00, 0.14]</t>
   </si>
   <si>
-    <t xml:space="preserve">0.06</t>
-  </si>
-  <si>
     <t xml:space="preserve">[0.00, 0.23]</t>
   </si>
   <si>
     <t xml:space="preserve">0.77</t>
   </si>
   <si>
+    <t xml:space="preserve">0.53</t>
+  </si>
+  <si>
     <t xml:space="preserve">[0.05, 2.12]</t>
   </si>
   <si>
-    <t xml:space="preserve">sd(Daily pressure utilized (partner's view))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.24</t>
+    <t xml:space="preserve">sd(Daily partner's experienced pressure)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.21</t>
   </si>
   <si>
     <t xml:space="preserve">[0.01, 0.90]</t>
@@ -596,13 +1169,16 @@
     <t xml:space="preserve">0.75</t>
   </si>
   <si>
+    <t xml:space="preserve">0.65</t>
+  </si>
+  <si>
     <t xml:space="preserve">[0.04, 2.71]</t>
   </si>
   <si>
-    <t xml:space="preserve">sd(Daily pushing experienced)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily pushing utilized (partner's view))</t>
+    <t xml:space="preserve">sd(Daily individual's experienced pushing)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily partner's experienced pushing)</t>
   </si>
   <si>
     <t xml:space="preserve">Additional Parameters</t>
@@ -1022,21 +1598,111 @@
         <v>1</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="T1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1066,228 +1732,858 @@
         <v>11</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="P2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="W2" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>16</v>
+        <v>29</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>18</v>
+        <v>31</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>20</v>
+        <v>33</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>24</v>
+        <v>54</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>34</v>
+      <c r="AF5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="J6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="1" t="s">
+      <c r="O6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="V6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>44</v>
+      <c r="W6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="AE7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH7" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AL7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>55</v>
+      <c r="AM7" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AN7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>58</v>
+        <v>136</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="S8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J8" s="1" t="s">
+      <c r="T8" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>65</v>
+      <c r="Z8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AI8" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AK8" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AL8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM8" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AN8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AO8" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>66</v>
+        <v>160</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1299,10 +2595,40 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="1"/>
+      <c r="AM9" s="1"/>
+      <c r="AN9" s="1"/>
+      <c r="AO9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1314,309 +2640,1101 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1"/>
+      <c r="AM10" s="1"/>
+      <c r="AN10" s="1"/>
+      <c r="AO10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>68</v>
+        <v>162</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>69</v>
+        <v>163</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>70</v>
+        <v>164</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>71</v>
+        <v>165</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>72</v>
+        <v>166</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>14</v>
+        <v>167</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>76</v>
+        <v>170</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG11" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH11" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI11" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ11" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AK11" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AL11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM11" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AN11" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AO11" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="8" t="s">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>80</v>
+        <v>191</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y12" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>87</v>
+      <c r="Z12" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE12" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AF12" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH12" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AI12" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AJ12" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AK12" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM12" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AN12" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AO12" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>88</v>
+        <v>210</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>89</v>
+        <v>211</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>90</v>
+        <v>164</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>93</v>
+        <v>213</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>94</v>
+        <v>214</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>95</v>
+        <v>215</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>96</v>
+        <v>216</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>97</v>
+        <v>217</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>98</v>
+        <v>29</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF13" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AG13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH13" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AI13" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AJ13" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AK13" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AL13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM13" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AN13" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AO13" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>99</v>
+        <v>237</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>101</v>
-      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="1"/>
+      <c r="AO14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>102</v>
+        <v>241</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>102</v>
+        <v>241</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>102</v>
+        <v>241</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>102</v>
+        <v>241</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>102</v>
+        <v>241</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>102</v>
+        <v>241</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>102</v>
+        <v>241</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>102</v>
+        <v>241</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>102</v>
+        <v>241</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>102</v>
+        <v>241</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>102</v>
+        <v>241</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AC15" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AD15" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AE15" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AF15" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AG15" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AH15" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AI15" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AJ15" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AK15" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AL15" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AM15" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AN15" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AO15" s="1" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="8" t="s">
-        <v>103</v>
+        <v>242</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>104</v>
+        <v>243</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>91</v>
+        <v>244</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>106</v>
+        <v>245</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="S16" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>112</v>
+      <c r="T16" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AC16" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AD16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE16" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF16" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="AG16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH16" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="AI16" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="AJ16" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AK16" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="AL16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM16" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="AN16" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="AO16" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
-        <v>113</v>
+        <v>267</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>114</v>
+        <v>268</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>115</v>
+        <v>269</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>116</v>
+        <v>270</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>118</v>
+        <v>271</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>119</v>
+        <v>272</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>120</v>
+        <v>216</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>121</v>
+        <v>273</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>122</v>
+        <v>107</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AB17" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="AC17" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="AD17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE17" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="AF17" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="AG17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH17" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="AI17" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="AJ17" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="AK17" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="AL17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM17" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="AN17" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="AO17" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="8" t="s">
-        <v>123</v>
+        <v>291</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>124</v>
+        <v>292</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>125</v>
+        <v>277</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>126</v>
+        <v>293</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>129</v>
+        <v>294</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>130</v>
+        <v>295</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>132</v>
+        <v>53</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>133</v>
+        <v>297</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="AC18" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="AD18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE18" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AF18" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="AG18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH18" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="AI18" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="AJ18" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="AK18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN18" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="AO18" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="8" t="s">
-        <v>134</v>
+        <v>316</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>135</v>
+        <v>317</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>136</v>
+        <v>318</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="AC19" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="AD19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE19" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AF19" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="J19" s="1" t="s">
+      <c r="AG19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH19" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI19" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AJ19" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="AK19" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="AL19" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>141</v>
+      <c r="AM19" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="AN19" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="AO19" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="8" t="s">
-        <v>142</v>
+        <v>336</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1628,10 +3746,40 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1"/>
+      <c r="AI20" s="1"/>
+      <c r="AJ20" s="1"/>
+      <c r="AK20" s="1"/>
+      <c r="AL20" s="1"/>
+      <c r="AM20" s="1"/>
+      <c r="AN20" s="1"/>
+      <c r="AO20" s="1"/>
     </row>
     <row r="21">
       <c r="A21" s="8" t="s">
-        <v>143</v>
+        <v>337</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1643,239 +3791,601 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="1"/>
+      <c r="AI21" s="1"/>
+      <c r="AJ21" s="1"/>
+      <c r="AK21" s="1"/>
+      <c r="AL21" s="1"/>
+      <c r="AM21" s="1"/>
+      <c r="AN21" s="1"/>
+      <c r="AO21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" s="8" t="s">
-        <v>144</v>
+        <v>338</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>101</v>
-      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="1"/>
+      <c r="AI22" s="1"/>
+      <c r="AJ22" s="1"/>
+      <c r="AK22" s="1"/>
+      <c r="AL22" s="1"/>
+      <c r="AM22" s="1"/>
+      <c r="AN22" s="1"/>
+      <c r="AO22" s="1"/>
     </row>
     <row r="23">
       <c r="A23" s="7" t="s">
-        <v>146</v>
+        <v>342</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>146</v>
+        <v>342</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>146</v>
+        <v>342</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>146</v>
+        <v>342</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>146</v>
+        <v>342</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>146</v>
+        <v>342</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>146</v>
+        <v>342</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>146</v>
+        <v>342</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>146</v>
+        <v>342</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>146</v>
+        <v>342</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>146</v>
+        <v>342</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="Z23" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AA23" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AB23" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AC23" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AD23" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AE23" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AF23" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AG23" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH23" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI23" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ23" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK23" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AL23" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AM23" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AN23" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AO23" s="1" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="8" t="s">
-        <v>147</v>
+        <v>343</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>148</v>
+        <v>344</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>149</v>
+        <v>45</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>155</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
       <c r="J24" s="1" t="s">
-        <v>156</v>
+        <v>346</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>157</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="AA24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB24" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="AI24" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AJ24" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="AK24" s="1"/>
+      <c r="AL24" s="1"/>
+      <c r="AM24" s="1"/>
+      <c r="AN24" s="1"/>
+      <c r="AO24" s="1"/>
     </row>
     <row r="25">
       <c r="A25" s="8" t="s">
-        <v>158</v>
+        <v>353</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>159</v>
+        <v>318</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>160</v>
+        <v>354</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>165</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
       <c r="J25" s="1" t="s">
-        <v>166</v>
+        <v>356</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>167</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB25" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1"/>
+      <c r="AH25" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="AI25" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ25" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="AK25" s="1"/>
+      <c r="AL25" s="1"/>
+      <c r="AM25" s="1"/>
+      <c r="AN25" s="1"/>
+      <c r="AO25" s="1"/>
     </row>
     <row r="26">
       <c r="A26" s="8" t="s">
-        <v>168</v>
+        <v>361</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>170</v>
+        <v>354</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>174</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
       <c r="J26" s="1" t="s">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>176</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB26" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="AI26" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="AJ26" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="AK26" s="1"/>
+      <c r="AL26" s="1"/>
+      <c r="AM26" s="1"/>
+      <c r="AN26" s="1"/>
+      <c r="AO26" s="1"/>
     </row>
     <row r="27">
       <c r="A27" s="8" t="s">
-        <v>177</v>
+        <v>369</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>178</v>
+        <v>370</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>179</v>
+        <v>322</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>185</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
       <c r="J27" s="1" t="s">
-        <v>186</v>
+        <v>372</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>187</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA27" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AB27" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+      <c r="AH27" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="AI27" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="AJ27" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="AK27" s="1"/>
+      <c r="AL27" s="1"/>
+      <c r="AM27" s="1"/>
+      <c r="AN27" s="1"/>
+      <c r="AO27" s="1"/>
     </row>
     <row r="28">
       <c r="A28" s="8" t="s">
-        <v>188</v>
+        <v>379</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>189</v>
+        <v>232</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>190</v>
+        <v>380</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>181</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
       <c r="J28" s="1" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>194</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="AA28" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AB28" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="1"/>
+      <c r="AH28" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="AI28" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="AJ28" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="AK28" s="1"/>
+      <c r="AL28" s="1"/>
+      <c r="AM28" s="1"/>
+      <c r="AN28" s="1"/>
+      <c r="AO28" s="1"/>
     </row>
     <row r="29">
       <c r="A29" s="8" t="s">
-        <v>195</v>
+        <v>387</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1887,10 +4397,40 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
+      <c r="AH29" s="1"/>
+      <c r="AI29" s="1"/>
+      <c r="AJ29" s="1"/>
+      <c r="AK29" s="1"/>
+      <c r="AL29" s="1"/>
+      <c r="AM29" s="1"/>
+      <c r="AN29" s="1"/>
+      <c r="AO29" s="1"/>
     </row>
     <row r="30">
       <c r="A30" s="8" t="s">
-        <v>196</v>
+        <v>388</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1902,68 +4442,224 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="1"/>
+      <c r="AI30" s="1"/>
+      <c r="AJ30" s="1"/>
+      <c r="AK30" s="1"/>
+      <c r="AL30" s="1"/>
+      <c r="AM30" s="1"/>
+      <c r="AN30" s="1"/>
+      <c r="AO30" s="1"/>
     </row>
     <row r="31">
       <c r="A31" s="7" t="s">
-        <v>197</v>
+        <v>389</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>197</v>
+        <v>389</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>197</v>
+        <v>389</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>197</v>
+        <v>389</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>197</v>
+        <v>389</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>197</v>
+        <v>389</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>197</v>
+        <v>389</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>197</v>
+        <v>389</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>197</v>
+        <v>389</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>197</v>
+        <v>389</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>197</v>
+        <v>389</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="Y31" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="Z31" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="AA31" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="AB31" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="AC31" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="AD31" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="AE31" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF31" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="AG31" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="AH31" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="AI31" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="AJ31" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="AK31" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="AL31" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="AM31" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="AN31" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="AO31" s="1" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="9" t="s">
-        <v>198</v>
+        <v>390</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
-      <c r="D32" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="S32" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="T32" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA32" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB32" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="AC32" s="4"/>
+      <c r="AD32" s="4"/>
+      <c r="AE32" s="4"/>
+      <c r="AF32" s="4"/>
+      <c r="AG32" s="4"/>
+      <c r="AH32" s="4"/>
+      <c r="AI32" s="4"/>
+      <c r="AJ32" s="4"/>
+      <c r="AK32" s="4"/>
+      <c r="AL32" s="4"/>
+      <c r="AM32" s="4"/>
+      <c r="AN32" s="4"/>
+      <c r="AO32" s="4"/>
     </row>
     <row r="33">
       <c r="A33" s="8"/>
@@ -1985,14 +4681,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A15:K15"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="A31:K31"/>
+    <mergeCell ref="B1:Q1"/>
+    <mergeCell ref="R1:Y1"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="AH1:AO1"/>
+    <mergeCell ref="A4:AO4"/>
+    <mergeCell ref="A15:AO15"/>
+    <mergeCell ref="A23:AO23"/>
+    <mergeCell ref="A31:AO31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Output/AllModels_sensitivityNoPushing_12000.xlsx
+++ b/Output/AllModels_sensitivityNoPushing_12000.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="395">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -170,7 +170,7 @@
     <t xml:space="preserve">0.001</t>
   </si>
   <si>
-    <t xml:space="preserve">20.778</t>
+    <t xml:space="preserve">20.327</t>
   </si>
   <si>
     <t xml:space="preserve">Strong Evidence</t>
@@ -257,7 +257,7 @@
     <t xml:space="preserve">0.612</t>
   </si>
   <si>
-    <t xml:space="preserve">0.200</t>
+    <t xml:space="preserve">0.202</t>
   </si>
   <si>
     <t xml:space="preserve">Moderate Evidence for Null</t>
@@ -326,7 +326,7 @@
     <t xml:space="preserve">0.694</t>
   </si>
   <si>
-    <t xml:space="preserve">0.087</t>
+    <t xml:space="preserve">0.088</t>
   </si>
   <si>
     <t xml:space="preserve">Daily individual's experienced pressure</t>
@@ -347,7 +347,7 @@
     <t xml:space="preserve">0.793</t>
   </si>
   <si>
-    <t xml:space="preserve">0.072</t>
+    <t xml:space="preserve">0.071</t>
   </si>
   <si>
     <t xml:space="preserve">0.90*</t>
@@ -362,7 +362,7 @@
     <t xml:space="preserve">0.309</t>
   </si>
   <si>
-    <t xml:space="preserve">0.063</t>
+    <t xml:space="preserve">0.064</t>
   </si>
   <si>
     <t xml:space="preserve">0.95</t>
@@ -410,7 +410,7 @@
     <t xml:space="preserve">0.024</t>
   </si>
   <si>
-    <t xml:space="preserve">2.244</t>
+    <t xml:space="preserve">2.265</t>
   </si>
   <si>
     <t xml:space="preserve">Weak Evidence</t>
@@ -434,7 +434,7 @@
     <t xml:space="preserve">0.047</t>
   </si>
   <si>
-    <t xml:space="preserve">4.112</t>
+    <t xml:space="preserve">4.075</t>
   </si>
   <si>
     <t xml:space="preserve">Moderate Evidence</t>
@@ -518,7 +518,7 @@
     <t xml:space="preserve">0.547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.133</t>
+    <t xml:space="preserve">0.132</t>
   </si>
   <si>
     <t xml:space="preserve">0.96</t>
@@ -557,7 +557,7 @@
     <t xml:space="preserve">0.007</t>
   </si>
   <si>
-    <t xml:space="preserve">67.820</t>
+    <t xml:space="preserve">67.710</t>
   </si>
   <si>
     <t xml:space="preserve">Very Strong Evidence</t>
@@ -578,7 +578,7 @@
     <t xml:space="preserve">0.097</t>
   </si>
   <si>
-    <t xml:space="preserve">0.181</t>
+    <t xml:space="preserve">0.175</t>
   </si>
   <si>
     <t xml:space="preserve">Own Actionplan</t>
@@ -611,7 +611,7 @@
     <t xml:space="preserve">0.494</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155</t>
+    <t xml:space="preserve">0.156</t>
   </si>
   <si>
     <t xml:space="preserve">0.11**</t>
@@ -623,7 +623,7 @@
     <t xml:space="preserve">0.566</t>
   </si>
   <si>
-    <t xml:space="preserve">0.217</t>
+    <t xml:space="preserve">0.218</t>
   </si>
   <si>
     <t xml:space="preserve">1.17</t>
@@ -659,7 +659,7 @@
     <t xml:space="preserve">0.402</t>
   </si>
   <si>
-    <t xml:space="preserve">0.453</t>
+    <t xml:space="preserve">0.450</t>
   </si>
   <si>
     <t xml:space="preserve">Weak Evidence for Null</t>
@@ -722,7 +722,7 @@
     <t xml:space="preserve">0.439</t>
   </si>
   <si>
-    <t xml:space="preserve">0.049</t>
+    <t xml:space="preserve">0.048</t>
   </si>
   <si>
     <t xml:space="preserve">Daily weartime</t>
@@ -734,7 +734,7 @@
     <t xml:space="preserve">[ 1.00,   1.00]</t>
   </si>
   <si>
-    <t xml:space="preserve">16.959</t>
+    <t xml:space="preserve">16.795</t>
   </si>
   <si>
     <t xml:space="preserve">Between-Person Effects</t>
@@ -794,7 +794,7 @@
     <t xml:space="preserve">0.094</t>
   </si>
   <si>
-    <t xml:space="preserve">0.055</t>
+    <t xml:space="preserve">0.054</t>
   </si>
   <si>
     <t xml:space="preserve">1.72</t>
@@ -812,7 +812,7 @@
     <t xml:space="preserve">0.160</t>
   </si>
   <si>
-    <t xml:space="preserve">0.101</t>
+    <t xml:space="preserve">0.102</t>
   </si>
   <si>
     <t xml:space="preserve">Mean partner's experienced persuasion</t>
@@ -842,9 +842,6 @@
     <t xml:space="preserve">0.422</t>
   </si>
   <si>
-    <t xml:space="preserve">0.014</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.13</t>
   </si>
   <si>
@@ -884,7 +881,7 @@
     <t xml:space="preserve">0.212</t>
   </si>
   <si>
-    <t xml:space="preserve">0.069</t>
+    <t xml:space="preserve">0.068</t>
   </si>
   <si>
     <t xml:space="preserve">Mean individual's experienced pressure</t>
@@ -899,7 +896,7 @@
     <t xml:space="preserve">0.008</t>
   </si>
   <si>
-    <t xml:space="preserve">10.697</t>
+    <t xml:space="preserve">10.588</t>
   </si>
   <si>
     <t xml:space="preserve">1.19</t>
@@ -959,7 +956,7 @@
     <t xml:space="preserve">[3.51, 215.28]</t>
   </si>
   <si>
-    <t xml:space="preserve">16.863</t>
+    <t xml:space="preserve">17.062</t>
   </si>
   <si>
     <t xml:space="preserve">Mean partner's experienced pressure</t>
@@ -977,7 +974,7 @@
     <t xml:space="preserve">0.121</t>
   </si>
   <si>
-    <t xml:space="preserve">0.606</t>
+    <t xml:space="preserve">0.610</t>
   </si>
   <si>
     <t xml:space="preserve">0.16</t>
@@ -992,6 +989,9 @@
     <t xml:space="preserve">0.360</t>
   </si>
   <si>
+    <t xml:space="preserve">0.012</t>
+  </si>
+  <si>
     <t xml:space="preserve">[ 0.79,   1.36]</t>
   </si>
   <si>
@@ -1014,9 +1014,6 @@
   </si>
   <si>
     <t xml:space="preserve">0.516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132</t>
   </si>
   <si>
     <t xml:space="preserve">0.098</t>
@@ -3404,7 +3401,7 @@
         <v>275</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>276</v>
+        <v>63</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>64</v>
@@ -3413,19 +3410,19 @@
         <v>58</v>
       </c>
       <c r="S17" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="T17" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="T17" s="1" t="s">
+      <c r="U17" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>279</v>
       </c>
       <c r="V17" s="1" t="s">
         <v>43</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="X17" s="1" t="s">
         <v>86</v>
@@ -3440,43 +3437,43 @@
         <v>257</v>
       </c>
       <c r="AB17" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="AC17" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="AC17" s="1" t="s">
-        <v>282</v>
       </c>
       <c r="AD17" s="1" t="s">
         <v>47</v>
       </c>
       <c r="AE17" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="AF17" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="AF17" s="1" t="s">
-        <v>284</v>
       </c>
       <c r="AG17" s="1" t="s">
         <v>70</v>
       </c>
       <c r="AH17" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="AI17" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="AI17" s="1" t="s">
+      <c r="AJ17" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="AJ17" s="1" t="s">
+      <c r="AK17" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="AK17" s="1" t="s">
-        <v>288</v>
       </c>
       <c r="AL17" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AM17" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="AN17" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="AN17" s="1" t="s">
-        <v>290</v>
       </c>
       <c r="AO17" s="1" t="s">
         <v>70</v>
@@ -3484,16 +3481,16 @@
     </row>
     <row r="18">
       <c r="A18" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="C18" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>93</v>
@@ -3502,55 +3499,55 @@
         <v>32</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>53</v>
       </c>
       <c r="J18" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="L18" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="M18" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>39</v>
       </c>
       <c r="O18" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="P18" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>301</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>64</v>
       </c>
       <c r="R18" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="T18" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="S18" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="T18" s="1" t="s">
+      <c r="U18" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="U18" s="1" t="s">
-        <v>304</v>
       </c>
       <c r="V18" s="1" t="s">
         <v>43</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="X18" s="1" t="s">
         <v>98</v>
@@ -3559,37 +3556,37 @@
         <v>64</v>
       </c>
       <c r="Z18" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="AA18" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="AA18" s="1" t="s">
+      <c r="AB18" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="AB18" s="1" t="s">
+      <c r="AC18" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="AC18" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="AD18" s="1" t="s">
         <v>47</v>
       </c>
       <c r="AE18" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="AF18" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="AF18" s="1" t="s">
-        <v>311</v>
       </c>
       <c r="AG18" s="1" t="s">
         <v>64</v>
       </c>
       <c r="AH18" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="AI18" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="AI18" s="1" t="s">
+      <c r="AJ18" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="AJ18" s="1" t="s">
-        <v>314</v>
       </c>
       <c r="AK18" s="1" t="s">
         <v>31</v>
@@ -3601,7 +3598,7 @@
         <v>51</v>
       </c>
       <c r="AN18" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AO18" s="1" t="s">
         <v>53</v>
@@ -3609,16 +3606,16 @@
     </row>
     <row r="19">
       <c r="A19" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>319</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>144</v>
@@ -3627,34 +3624,34 @@
         <v>32</v>
       </c>
       <c r="G19" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>321</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>216</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K19" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="L19" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="M19" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>324</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>39</v>
       </c>
       <c r="O19" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="P19" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>64</v>
@@ -3687,13 +3684,13 @@
         <v>329</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AB19" s="1" t="s">
         <v>330</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AD19" s="1" t="s">
         <v>47</v>
@@ -3702,7 +3699,7 @@
         <v>331</v>
       </c>
       <c r="AF19" s="1" t="s">
-        <v>121</v>
+        <v>255</v>
       </c>
       <c r="AG19" s="1" t="s">
         <v>64</v>
@@ -3723,10 +3720,10 @@
         <v>50</v>
       </c>
       <c r="AM19" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AN19" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="AN19" s="1" t="s">
-        <v>335</v>
       </c>
       <c r="AO19" s="1" t="s">
         <v>70</v>
@@ -3734,7 +3731,7 @@
     </row>
     <row r="20">
       <c r="A20" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -3779,7 +3776,7 @@
     </row>
     <row r="21">
       <c r="A21" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -3824,7 +3821,7 @@
     </row>
     <row r="22">
       <c r="A22" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -3843,7 +3840,7 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="S22" s="1" t="s">
         <v>71</v>
@@ -3852,7 +3849,7 @@
         <v>239</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="V22" s="1" t="s">
         <v>43</v>
@@ -3861,7 +3858,7 @@
         <v>31</v>
       </c>
       <c r="X22" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Y22" s="1" t="s">
         <v>64</v>
@@ -3885,141 +3882,141 @@
     </row>
     <row r="23">
       <c r="A23" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="X23" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="Z23" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AA23" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AC23" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AD23" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AE23" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AF23" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AG23" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AH23" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AI23" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AJ23" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AK23" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AL23" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AM23" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AN23" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AO23" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -4027,13 +4024,13 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -4047,7 +4044,7 @@
         <v>29</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
@@ -4055,13 +4052,13 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
       <c r="Z24" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AA24" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
@@ -4069,13 +4066,13 @@
       <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
       <c r="AH24" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AI24" s="1" t="s">
         <v>257</v>
       </c>
       <c r="AJ24" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AK24" s="1"/>
       <c r="AL24" s="1"/>
@@ -4085,16 +4082,16 @@
     </row>
     <row r="25">
       <c r="A25" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>355</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -4102,13 +4099,13 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>72</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
@@ -4122,7 +4119,7 @@
         <v>65</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
@@ -4136,7 +4133,7 @@
         <v>59</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
@@ -4144,13 +4141,13 @@
       <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
       <c r="AH25" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AI25" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AJ25" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AK25" s="1"/>
       <c r="AL25" s="1"/>
@@ -4160,16 +4157,16 @@
     </row>
     <row r="26">
       <c r="A26" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>107</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -4183,7 +4180,7 @@
         <v>72</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
@@ -4197,7 +4194,7 @@
         <v>72</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
@@ -4211,7 +4208,7 @@
         <v>59</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
@@ -4219,13 +4216,13 @@
       <c r="AF26" s="1"/>
       <c r="AG26" s="1"/>
       <c r="AH26" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="AI26" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="AI26" s="1" t="s">
+      <c r="AJ26" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="AJ26" s="1" t="s">
-        <v>368</v>
       </c>
       <c r="AK26" s="1"/>
       <c r="AL26" s="1"/>
@@ -4235,16 +4232,16 @@
     </row>
     <row r="27">
       <c r="A27" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>371</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -4252,13 +4249,13 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>170</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
@@ -4272,7 +4269,7 @@
         <v>29</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
@@ -4286,7 +4283,7 @@
         <v>170</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
@@ -4294,13 +4291,13 @@
       <c r="AF27" s="1"/>
       <c r="AG27" s="1"/>
       <c r="AH27" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="AI27" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="AI27" s="1" t="s">
+      <c r="AJ27" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="AJ27" s="1" t="s">
-        <v>378</v>
       </c>
       <c r="AK27" s="1"/>
       <c r="AL27" s="1"/>
@@ -4310,16 +4307,16 @@
     </row>
     <row r="28">
       <c r="A28" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>232</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -4333,7 +4330,7 @@
         <v>123</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
@@ -4347,7 +4344,7 @@
         <v>59</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
@@ -4355,13 +4352,13 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
       <c r="Z28" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AA28" s="1" t="s">
         <v>170</v>
       </c>
       <c r="AB28" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
@@ -4369,13 +4366,13 @@
       <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
       <c r="AH28" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="AI28" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="AI28" s="1" t="s">
+      <c r="AJ28" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="AJ28" s="1" t="s">
-        <v>386</v>
       </c>
       <c r="AK28" s="1"/>
       <c r="AL28" s="1"/>
@@ -4385,7 +4382,7 @@
     </row>
     <row r="29">
       <c r="A29" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -4430,7 +4427,7 @@
     </row>
     <row r="30">
       <c r="A30" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -4475,132 +4472,132 @@
     </row>
     <row r="31">
       <c r="A31" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="W31" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="X31" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z31" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AA31" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AB31" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AC31" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AD31" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AE31" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AF31" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AG31" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AH31" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AI31" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AJ31" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AK31" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AL31" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AM31" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AN31" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AO31" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -4611,13 +4608,13 @@
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K32" s="4" t="s">
         <v>65</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
@@ -4625,13 +4622,13 @@
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="S32" s="4" t="s">
         <v>65</v>
       </c>
       <c r="T32" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
@@ -4645,7 +4642,7 @@
         <v>65</v>
       </c>
       <c r="AB32" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AC32" s="4"/>
       <c r="AD32" s="4"/>

--- a/Output/AllModels_sensitivityNoPushing_12000.xlsx
+++ b/Output/AllModels_sensitivityNoPushing_12000.xlsx
@@ -68,259 +68,265 @@
     <t xml:space="preserve">Intercept</t>
   </si>
   <si>
+    <t xml:space="preserve">0.21***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.15,  0.30]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.30***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[31.85, 43.68]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109.79***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[98.70, 122.10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 3.44, 3.86]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.34**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.18,   0.64]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Within-Person Effects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily individual's experienced persuasion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.35,  1.80]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.98,  1.08]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.00,   1.06]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.04, 0.05]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.70,   1.03]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily partner's experienced persuasion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.23,  1.56]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.98,  1.07]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.99,   1.05]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.01, 0.08]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.86,   1.50]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily individual's experienced pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.75,  1.39]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.89*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.80,  0.99]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.89,   1.02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.13, 0.08]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1.22,   4.32]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily partner's experienced pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.14,  2.76]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.85,  1.02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.92,   1.05]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.09, 0.12]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.55,   4.09]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily individual's experienced pushing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily partner's experienced pushing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.60,  1.07]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.85,  1.08]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.91,   1.04]</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.25***</t>
   </si>
   <si>
-    <t xml:space="preserve">[ 0.19,  0.34]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.36***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[33.53, 43.91]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110.60***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[99.48, 123.12]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 3.45, 3.86]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.31***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.17,   0.58]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Within-Person Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily individual's experienced persuasion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.35,  1.77]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.97,  1.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.00,   1.06]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.04, 0.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.70,   1.02]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily partner's experienced persuasion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.22,  1.54]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.98,  1.07]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.99,   1.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.01, 0.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.87,   1.48]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily individual's experienced pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.73,  1.30]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.90*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.82,  1.00]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.89,   1.02]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.14, 0.07]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1.18,   4.21]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily partner's experienced pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.14,  2.42]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.85,  1.02]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.93,   1.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.10, 0.10]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.57,   3.94]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily individual's experienced pushing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily partner's experienced pushing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Day</t>
+    <t xml:space="preserve">[ 0.14, 0.36]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.92,   4.08]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Own Actionplan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.28***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 8.41, 12.57]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.22,  1.48]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.02,   1.13]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.04, 0.20]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.65,   2.04]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partner Actionplan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.01,  1.50]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.98,  1.16]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.01,   1.11]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.09, 0.06]</t>
   </si>
   <si>
     <t xml:space="preserve">0.85</t>
   </si>
   <si>
-    <t xml:space="preserve">[ 0.64,  1.14]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.86,  1.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.91,   1.04]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.14, 0.36]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.90,   3.95]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Own Actionplan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 7.40, 10.83]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.22,  1.46]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.02,   1.12]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.03, 0.18]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.66,   2.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partner Actionplan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.01,  1.48]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.99,  1.16]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.01,   1.11]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.08, 0.07]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.51,   1.50]</t>
+    <t xml:space="preserve">[0.49,   1.47]</t>
   </si>
   <si>
     <t xml:space="preserve">Daily weartime</t>
@@ -338,13 +344,16 @@
     <t xml:space="preserve">Mean individual's experienced persuasion</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.83,  3.02]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.81,  1.40]</t>
+    <t xml:space="preserve">1.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.81,  3.29]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.80,  1.41]</t>
   </si>
   <si>
     <t xml:space="preserve">1.10</t>
@@ -356,259 +365,250 @@
     <t xml:space="preserve">0.42</t>
   </si>
   <si>
-    <t xml:space="preserve">[-0.09, 0.93]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.50,   6.33]</t>
+    <t xml:space="preserve">[-0.10, 0.93]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.47,   6.38]</t>
   </si>
   <si>
     <t xml:space="preserve">Mean partner's experienced persuasion</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.85,  3.10]</t>
+    <t xml:space="preserve">1.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.83,  3.34]</t>
   </si>
   <si>
     <t xml:space="preserve">1.04</t>
   </si>
   <si>
-    <t xml:space="preserve">[ 0.79,  1.36]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.80,   1.32]</t>
+    <t xml:space="preserve">[ 0.78,  1.37]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.81,   1.33]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.19, 0.84]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.28,   4.61]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean individual's experienced pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.06,  0.41]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.55,  1.91]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.68,   1.18]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.90, 0.20]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.87***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[3.74, 268.79]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean partner's experienced pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.34*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.12,  0.86]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.45,  1.56]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.79,   1.35]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.83, 0.27]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.08,   7.19]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean individual's experienced pushing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean partner's experienced pushing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean weartime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Random Effects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Intercept)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.61, 1.07]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.23, 0.41]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.23, 0.38]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.48, 0.78]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.84, 1.90]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily individual's experienced persuasion)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.05, 0.43]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.07, 0.16]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.02, 0.08]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.11]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.02, 0.53]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily partner's experienced persuasion)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.34]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.04, 0.13]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.03, 0.09]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.02, 0.14]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.14, 0.87]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily individual's experienced pressure)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.73]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.24]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.15]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.23]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.04, 2.07]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily partner's experienced pressure)</t>
   </si>
   <si>
     <t xml:space="preserve">0.34</t>
   </si>
   <si>
-    <t xml:space="preserve">[-0.18, 0.84]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.27,   4.01]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean individual's experienced pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.33**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.15,  0.71]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.86,  1.65]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.69,   1.20]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.90, 0.19]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.85***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[3.51, 215.28]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean partner's experienced pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.25,  1.21]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.71,  1.36]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.79,   1.36]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.84, 0.26]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.10,   7.31]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean individual's experienced pushing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean partner's experienced pushing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean weartime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Random Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Intercept)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.55, 0.97]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.23, 0.39]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.23, 0.38]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.48, 0.78]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.82, 1.83]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily individual's experienced persuasion)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.05, 0.40]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.08, 0.17]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.11]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.49]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily partner's experienced persuasion)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.33]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.04, 0.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.14, 0.85]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily individual's experienced pressure)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.69]</t>
+    <t xml:space="preserve">[0.02, 1.14]</t>
   </si>
   <si>
     <t xml:space="preserve">0.07</t>
   </si>
   <si>
-    <t xml:space="preserve">[0.00, 0.24]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.14]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.23]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.05, 2.12]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily partner's experienced pressure)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.90]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.19]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.12]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.04, 2.71]</t>
+    <t xml:space="preserve">[0.00, 0.20]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.04, 2.79]</t>
   </si>
   <si>
     <t xml:space="preserve">sd(Daily individual's experienced pushing)</t>
@@ -626,7 +626,7 @@
     <t xml:space="preserve">0.68</t>
   </si>
   <si>
-    <t xml:space="preserve">[0.66, 0.71]</t>
+    <t xml:space="preserve">[0.66, 0.70]</t>
   </si>
   <si>
     <t xml:space="preserve">0.58</t>
@@ -1235,13 +1235,13 @@
         <v>41</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>44</v>
@@ -1264,60 +1264,60 @@
         <v>49</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="K8" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>67</v>
@@ -1376,107 +1376,107 @@
         <v>76</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1485,182 +1485,182 @@
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="K17" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="B20" s="1" t="s">
         <v>139</v>
       </c>
+      <c r="B20" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="C20" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1675,7 +1675,7 @@
     </row>
     <row r="22">
       <c r="A22" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1690,17 +1690,17 @@
     </row>
     <row r="23">
       <c r="A23" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -1709,162 +1709,162 @@
     </row>
     <row r="24">
       <c r="A24" s="6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>152</v>
+        <v>73</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G27" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="I27" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>187</v>
@@ -1893,22 +1893,22 @@
         <v>194</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="I29" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>197</v>

--- a/Output/AllModels_sensitivityNoPushing_12000.xlsx
+++ b/Output/AllModels_sensitivityNoPushing_12000.xlsx
@@ -329,7 +329,7 @@
     <t xml:space="preserve">[0.49,   1.47]</t>
   </si>
   <si>
-    <t xml:space="preserve">Daily weartime</t>
+    <t xml:space="preserve">Daily wear time</t>
   </si>
   <si>
     <t xml:space="preserve">1.00***</t>
@@ -464,7 +464,7 @@
     <t xml:space="preserve">Mean partner's experienced pushing</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean weartime</t>
+    <t xml:space="preserve">Mean wear time</t>
   </si>
   <si>
     <t xml:space="preserve">1.00</t>
